--- a/datasets/state-populations.xlsx
+++ b/datasets/state-populations.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intro-to-excel-power-query\4-transforming-rows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC1EB5-EC70-455F-B28F-B9C59D462D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845DD687-F13A-4C36-8810-6A21D81217CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FCAB1A66-0099-44C2-A0E5-A8B6C271FDEC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{FCAB1A66-0099-44C2-A0E5-A8B6C271FDEC}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="1" r:id="rId1"/>
     <sheet name="midwest_cities" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>region</t>
   </si>
@@ -248,96 +247,6 @@
   </si>
   <si>
     <t>Cities</t>
-  </si>
-  <si>
-    <t>1. Chicago</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Illinois</t>
-  </si>
-  <si>
-    <t>2. Indianapolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indiana</t>
-  </si>
-  <si>
-    <t>3. Columbus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ohio</t>
-  </si>
-  <si>
-    <t>4. Detroit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Michigan</t>
-  </si>
-  <si>
-    <t>5. Milwaukee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wisconsin</t>
-  </si>
-  <si>
-    <t>6. Kansas City</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Missouri</t>
-  </si>
-  <si>
-    <t>7. Omaha</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nebraska</t>
-  </si>
-  <si>
-    <t>8. Minneapolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Minnesota</t>
-  </si>
-  <si>
-    <t>9. Wichita</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kansas</t>
-  </si>
-  <si>
-    <t>10. Cleveland</t>
-  </si>
-  <si>
-    <t>11. St. Louis</t>
-  </si>
-  <si>
-    <t>12. St. Paul</t>
-  </si>
-  <si>
-    <t>13. Cincinnati</t>
-  </si>
-  <si>
-    <t>14. Toledo</t>
-  </si>
-  <si>
-    <t>15. Lincoln</t>
-  </si>
-  <si>
-    <t>16. Fort Wayne</t>
-  </si>
-  <si>
-    <t>17. Madison</t>
-  </si>
-  <si>
-    <t>18. Des Moines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iowa</t>
-  </si>
-  <si>
-    <t>19. Aurora</t>
-  </si>
-  <si>
-    <t>20. Grand Rapids</t>
   </si>
   <si>
     <t>Milwaukee, Madison</t>
@@ -736,15 +645,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -772,7 +681,7 @@
         <v>12801539</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -780,7 +689,7 @@
         <v>6633053</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -788,7 +697,7 @@
         <v>9928300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -796,7 +705,7 @@
         <v>11614373</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -804,7 +713,7 @@
         <v>5778708</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -815,7 +724,7 @@
         <v>3134693</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -823,7 +732,7 @@
         <v>2907289</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -831,7 +740,7 @@
         <v>5519952</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -839,7 +748,7 @@
         <v>6093000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -847,7 +756,7 @@
         <v>1907116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -855,7 +764,7 @@
         <v>757952</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -863,7 +772,7 @@
         <v>865454</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -877,7 +786,7 @@
         <v>8944469</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -885,7 +794,7 @@
         <v>19745289</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -893,7 +802,7 @@
         <v>12784227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -904,7 +813,7 @@
         <v>3576452</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -912,7 +821,7 @@
         <v>1331479</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>27</v>
       </c>
@@ -920,7 +829,7 @@
         <v>6811779</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>28</v>
       </c>
@@ -928,7 +837,7 @@
         <v>1334795</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -936,7 +845,7 @@
         <v>1056426</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -944,7 +853,7 @@
         <v>624594</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -958,7 +867,7 @@
         <v>4863300</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -966,7 +875,7 @@
         <v>4436974</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>35</v>
       </c>
@@ -974,7 +883,7 @@
         <v>2988726</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -982,7 +891,7 @@
         <v>6651194</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -993,7 +902,7 @@
         <v>952065</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>39</v>
       </c>
@@ -1001,7 +910,7 @@
         <v>681170</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -1009,7 +918,7 @@
         <v>20612439</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>41</v>
       </c>
@@ -1017,7 +926,7 @@
         <v>10310371</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -1025,7 +934,7 @@
         <v>6016447</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>43</v>
       </c>
@@ -1033,7 +942,7 @@
         <v>10146788</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -1041,7 +950,7 @@
         <v>4961119</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>45</v>
       </c>
@@ -1049,7 +958,7 @@
         <v>8411808</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>46</v>
       </c>
@@ -1057,7 +966,7 @@
         <v>1831102</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>47</v>
       </c>
@@ -1068,7 +977,7 @@
         <v>2988248</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>49</v>
       </c>
@@ -1076,7 +985,7 @@
         <v>4681666</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -1084,7 +993,7 @@
         <v>3923561</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>51</v>
       </c>
@@ -1092,7 +1001,7 @@
         <v>27862596</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1106,7 +1015,7 @@
         <v>6931071</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>55</v>
       </c>
@@ -1114,7 +1023,7 @@
         <v>5540545</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
         <v>56</v>
       </c>
@@ -1122,7 +1031,7 @@
         <v>1683140</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
         <v>57</v>
       </c>
@@ -1130,7 +1039,7 @@
         <v>1042520</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
         <v>58</v>
       </c>
@@ -1138,7 +1047,7 @@
         <v>2940058</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
         <v>59</v>
       </c>
@@ -1146,7 +1055,7 @@
         <v>2081015</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
         <v>60</v>
       </c>
@@ -1154,7 +1063,7 @@
         <v>3051217</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
         <v>61</v>
       </c>
@@ -1162,7 +1071,7 @@
         <v>585501</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>62</v>
       </c>
@@ -1173,7 +1082,7 @@
         <v>741894</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
         <v>64</v>
       </c>
@@ -1181,7 +1090,7 @@
         <v>39250017</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -1189,7 +1098,7 @@
         <v>1428557</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -1197,7 +1106,7 @@
         <v>4093465</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
         <v>67</v>
       </c>
@@ -1205,7 +1114,7 @@
         <v>7288000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -1230,13 +1139,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1244,391 +1153,87 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15DB987-6668-467D-B047-13516D2847C3}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1">
-        <v>599</v>
-      </c>
-      <c r="D1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2">
-        <v>248</v>
-      </c>
-      <c r="D2">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3">
-        <v>852</v>
-      </c>
-      <c r="D3">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>388</v>
-      </c>
-      <c r="D4">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5">
-        <v>298</v>
-      </c>
-      <c r="D5">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6">
-        <v>279</v>
-      </c>
-      <c r="D6">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7">
-        <v>463</v>
-      </c>
-      <c r="D7">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8">
-        <v>277</v>
-      </c>
-      <c r="D8">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9">
-        <v>476</v>
-      </c>
-      <c r="D9">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10">
-        <v>314</v>
-      </c>
-      <c r="D10">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11">
-        <v>411</v>
-      </c>
-      <c r="D11">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12">
-        <v>300</v>
-      </c>
-      <c r="D12">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13">
-        <v>679</v>
-      </c>
-      <c r="D13">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14">
-        <v>195</v>
-      </c>
-      <c r="D14">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15">
-        <v>389</v>
-      </c>
-      <c r="D15">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16">
-        <v>214</v>
-      </c>
-      <c r="D16">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17">
-        <v>853</v>
-      </c>
-      <c r="D17">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18">
-        <v>262</v>
-      </c>
-      <c r="D18">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>722</v>
-      </c>
-      <c r="E19">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20">
-        <v>200</v>
-      </c>
-      <c r="D20">
-        <v>946</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E20">
-    <sortCondition descending="1" ref="B1:B20"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>